--- a/analyses/unipept-table-results/ja14_propeps.xlsx
+++ b/analyses/unipept-table-results/ja14_propeps.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meganduffy/Documents/git-repos/2017-etnp/analyses/unipept-table-results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F3BC4A83-9104-BC4A-AE9A-36CC45214C87}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{BA17DF99-1DBC-1648-9056-C4959A5DEAF8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1600" yWindow="2860" windowWidth="21620" windowHeight="9660"/>
+    <workbookView xWindow="1420" yWindow="1820" windowWidth="23000" windowHeight="11860" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ja14_propeps" sheetId="1" r:id="rId1"/>
+    <sheet name="prok only" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="138">
   <si>
     <t>peptide</t>
   </si>
@@ -1276,7 +1277,989 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:AD52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30">
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30">
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" t="s">
+        <v>49</v>
+      </c>
+      <c r="J8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30">
+      <c r="A9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30">
+      <c r="A10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30">
+      <c r="A11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" t="s">
+        <v>54</v>
+      </c>
+      <c r="J11" t="s">
+        <v>55</v>
+      </c>
+      <c r="N11" t="s">
+        <v>56</v>
+      </c>
+      <c r="S11" t="s">
+        <v>57</v>
+      </c>
+      <c r="W11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30">
+      <c r="A12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30">
+      <c r="A13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30">
+      <c r="A14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30">
+      <c r="A15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" t="s">
+        <v>63</v>
+      </c>
+      <c r="G15" t="s">
+        <v>64</v>
+      </c>
+      <c r="N15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30">
+      <c r="A16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27">
+      <c r="A17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" t="s">
+        <v>33</v>
+      </c>
+      <c r="J17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27">
+      <c r="A18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27">
+      <c r="A19" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27">
+      <c r="A20" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27">
+      <c r="A21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" t="s">
+        <v>32</v>
+      </c>
+      <c r="G21" t="s">
+        <v>54</v>
+      </c>
+      <c r="J21" t="s">
+        <v>55</v>
+      </c>
+      <c r="N21" t="s">
+        <v>56</v>
+      </c>
+      <c r="S21" t="s">
+        <v>57</v>
+      </c>
+      <c r="W21" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27">
+      <c r="A22" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27">
+      <c r="A23" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27">
+      <c r="A24" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27">
+      <c r="A25" t="s">
+        <v>75</v>
+      </c>
+      <c r="B25" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27">
+      <c r="A26" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" t="s">
+        <v>47</v>
+      </c>
+      <c r="G26" t="s">
+        <v>48</v>
+      </c>
+      <c r="H26" t="s">
+        <v>49</v>
+      </c>
+      <c r="J26" t="s">
+        <v>45</v>
+      </c>
+      <c r="M26" t="s">
+        <v>78</v>
+      </c>
+      <c r="P26" t="s">
+        <v>79</v>
+      </c>
+      <c r="S26" t="s">
+        <v>80</v>
+      </c>
+      <c r="W26" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27">
+      <c r="A27" t="s">
+        <v>82</v>
+      </c>
+      <c r="B27" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27">
+      <c r="A28" t="s">
+        <v>83</v>
+      </c>
+      <c r="B28" t="s">
+        <v>77</v>
+      </c>
+      <c r="C28" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" t="s">
+        <v>47</v>
+      </c>
+      <c r="G28" t="s">
+        <v>48</v>
+      </c>
+      <c r="H28" t="s">
+        <v>49</v>
+      </c>
+      <c r="J28" t="s">
+        <v>45</v>
+      </c>
+      <c r="M28" t="s">
+        <v>78</v>
+      </c>
+      <c r="P28" t="s">
+        <v>79</v>
+      </c>
+      <c r="S28" t="s">
+        <v>80</v>
+      </c>
+      <c r="W28" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27">
+      <c r="A29" t="s">
+        <v>84</v>
+      </c>
+      <c r="B29" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27">
+      <c r="A30" t="s">
+        <v>85</v>
+      </c>
+      <c r="B30" t="s">
+        <v>78</v>
+      </c>
+      <c r="C30" t="s">
+        <v>46</v>
+      </c>
+      <c r="D30" t="s">
+        <v>47</v>
+      </c>
+      <c r="G30" t="s">
+        <v>48</v>
+      </c>
+      <c r="H30" t="s">
+        <v>49</v>
+      </c>
+      <c r="J30" t="s">
+        <v>45</v>
+      </c>
+      <c r="M30" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27">
+      <c r="A31" t="s">
+        <v>86</v>
+      </c>
+      <c r="B31" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27">
+      <c r="A32" t="s">
+        <v>87</v>
+      </c>
+      <c r="B32" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27">
+      <c r="A33" t="s">
+        <v>88</v>
+      </c>
+      <c r="B33" t="s">
+        <v>89</v>
+      </c>
+      <c r="C33" t="s">
+        <v>46</v>
+      </c>
+      <c r="D33" t="s">
+        <v>47</v>
+      </c>
+      <c r="G33" t="s">
+        <v>48</v>
+      </c>
+      <c r="H33" t="s">
+        <v>49</v>
+      </c>
+      <c r="I33" t="s">
+        <v>90</v>
+      </c>
+      <c r="J33" t="s">
+        <v>91</v>
+      </c>
+      <c r="K33" t="s">
+        <v>92</v>
+      </c>
+      <c r="L33" t="s">
+        <v>93</v>
+      </c>
+      <c r="M33" t="s">
+        <v>94</v>
+      </c>
+      <c r="N33" t="s">
+        <v>95</v>
+      </c>
+      <c r="O33" t="s">
+        <v>96</v>
+      </c>
+      <c r="S33" t="s">
+        <v>97</v>
+      </c>
+      <c r="W33" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27">
+      <c r="A34" t="s">
+        <v>99</v>
+      </c>
+      <c r="B34" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27">
+      <c r="A35" t="s">
+        <v>100</v>
+      </c>
+      <c r="B35" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27">
+      <c r="A36" t="s">
+        <v>101</v>
+      </c>
+      <c r="B36" t="s">
+        <v>77</v>
+      </c>
+      <c r="C36" t="s">
+        <v>46</v>
+      </c>
+      <c r="D36" t="s">
+        <v>47</v>
+      </c>
+      <c r="G36" t="s">
+        <v>48</v>
+      </c>
+      <c r="H36" t="s">
+        <v>49</v>
+      </c>
+      <c r="J36" t="s">
+        <v>45</v>
+      </c>
+      <c r="M36" t="s">
+        <v>78</v>
+      </c>
+      <c r="P36" t="s">
+        <v>79</v>
+      </c>
+      <c r="S36" t="s">
+        <v>80</v>
+      </c>
+      <c r="W36" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27">
+      <c r="A37" t="s">
+        <v>102</v>
+      </c>
+      <c r="B37" t="s">
+        <v>103</v>
+      </c>
+      <c r="C37" t="s">
+        <v>46</v>
+      </c>
+      <c r="D37" t="s">
+        <v>47</v>
+      </c>
+      <c r="G37" t="s">
+        <v>48</v>
+      </c>
+      <c r="H37" t="s">
+        <v>49</v>
+      </c>
+      <c r="J37" t="s">
+        <v>45</v>
+      </c>
+      <c r="M37" t="s">
+        <v>104</v>
+      </c>
+      <c r="N37" t="s">
+        <v>105</v>
+      </c>
+      <c r="O37" t="s">
+        <v>106</v>
+      </c>
+      <c r="P37" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>108</v>
+      </c>
+      <c r="R37" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27">
+      <c r="A38" t="s">
+        <v>109</v>
+      </c>
+      <c r="B38" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" t="s">
+        <v>46</v>
+      </c>
+      <c r="D38" t="s">
+        <v>47</v>
+      </c>
+      <c r="G38" t="s">
+        <v>48</v>
+      </c>
+      <c r="H38" t="s">
+        <v>49</v>
+      </c>
+      <c r="J38" t="s">
+        <v>45</v>
+      </c>
+      <c r="M38" t="s">
+        <v>78</v>
+      </c>
+      <c r="P38" t="s">
+        <v>79</v>
+      </c>
+      <c r="S38" t="s">
+        <v>80</v>
+      </c>
+      <c r="W38" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA38" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27">
+      <c r="A39" t="s">
+        <v>110</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27">
+      <c r="A40" t="s">
+        <v>111</v>
+      </c>
+      <c r="B40" t="s">
+        <v>53</v>
+      </c>
+      <c r="C40" t="s">
+        <v>32</v>
+      </c>
+      <c r="G40" t="s">
+        <v>54</v>
+      </c>
+      <c r="J40" t="s">
+        <v>55</v>
+      </c>
+      <c r="N40" t="s">
+        <v>56</v>
+      </c>
+      <c r="S40" t="s">
+        <v>57</v>
+      </c>
+      <c r="W40" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27">
+      <c r="A41" t="s">
+        <v>112</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27">
+      <c r="A42" t="s">
+        <v>113</v>
+      </c>
+      <c r="B42" t="s">
+        <v>114</v>
+      </c>
+      <c r="C42" t="s">
+        <v>32</v>
+      </c>
+      <c r="G42" t="s">
+        <v>33</v>
+      </c>
+      <c r="J42" t="s">
+        <v>34</v>
+      </c>
+      <c r="N42" t="s">
+        <v>115</v>
+      </c>
+      <c r="S42" t="s">
+        <v>116</v>
+      </c>
+      <c r="W42" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27">
+      <c r="A43" t="s">
+        <v>117</v>
+      </c>
+      <c r="B43" t="s">
+        <v>118</v>
+      </c>
+      <c r="C43" t="s">
+        <v>32</v>
+      </c>
+      <c r="G43" t="s">
+        <v>119</v>
+      </c>
+      <c r="J43" t="s">
+        <v>119</v>
+      </c>
+      <c r="N43" t="s">
+        <v>120</v>
+      </c>
+      <c r="S43" t="s">
+        <v>121</v>
+      </c>
+      <c r="W43" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27">
+      <c r="A44" t="s">
+        <v>122</v>
+      </c>
+      <c r="B44" t="s">
+        <v>123</v>
+      </c>
+      <c r="C44" t="s">
+        <v>32</v>
+      </c>
+      <c r="G44" t="s">
+        <v>33</v>
+      </c>
+      <c r="J44" t="s">
+        <v>34</v>
+      </c>
+      <c r="N44" t="s">
+        <v>124</v>
+      </c>
+      <c r="S44" t="s">
+        <v>125</v>
+      </c>
+      <c r="W44" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27">
+      <c r="A45" t="s">
+        <v>126</v>
+      </c>
+      <c r="B45" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" t="s">
+        <v>46</v>
+      </c>
+      <c r="D45" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27">
+      <c r="A46" t="s">
+        <v>127</v>
+      </c>
+      <c r="B46" t="s">
+        <v>53</v>
+      </c>
+      <c r="C46" t="s">
+        <v>32</v>
+      </c>
+      <c r="G46" t="s">
+        <v>54</v>
+      </c>
+      <c r="J46" t="s">
+        <v>55</v>
+      </c>
+      <c r="N46" t="s">
+        <v>56</v>
+      </c>
+      <c r="S46" t="s">
+        <v>57</v>
+      </c>
+      <c r="W46" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27">
+      <c r="A47" t="s">
+        <v>128</v>
+      </c>
+      <c r="B47" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27">
+      <c r="A48" t="s">
+        <v>129</v>
+      </c>
+      <c r="B48" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23">
+      <c r="A49" t="s">
+        <v>130</v>
+      </c>
+      <c r="B49" t="s">
+        <v>53</v>
+      </c>
+      <c r="C49" t="s">
+        <v>32</v>
+      </c>
+      <c r="G49" t="s">
+        <v>54</v>
+      </c>
+      <c r="J49" t="s">
+        <v>55</v>
+      </c>
+      <c r="N49" t="s">
+        <v>56</v>
+      </c>
+      <c r="S49" t="s">
+        <v>57</v>
+      </c>
+      <c r="W49" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23">
+      <c r="A50" t="s">
+        <v>131</v>
+      </c>
+      <c r="B50" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23">
+      <c r="A51" t="s">
+        <v>132</v>
+      </c>
+      <c r="B51" t="s">
+        <v>46</v>
+      </c>
+      <c r="C51" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23">
+      <c r="A52" t="s">
+        <v>133</v>
+      </c>
+      <c r="B52" t="s">
+        <v>134</v>
+      </c>
+      <c r="C52" t="s">
+        <v>32</v>
+      </c>
+      <c r="G52" t="s">
+        <v>135</v>
+      </c>
+      <c r="J52" t="s">
+        <v>135</v>
+      </c>
+      <c r="N52" t="s">
+        <v>136</v>
+      </c>
+      <c r="S52" t="s">
+        <v>137</v>
+      </c>
+      <c r="W52" t="s">
+        <v>134</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AD43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
@@ -1443,89 +2426,74 @@
     </row>
     <row r="8" spans="1:30">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C8" t="s">
         <v>46</v>
-      </c>
-      <c r="D8" t="s">
-        <v>47</v>
-      </c>
-      <c r="G8" t="s">
-        <v>48</v>
-      </c>
-      <c r="H8" t="s">
-        <v>49</v>
-      </c>
-      <c r="J8" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:30">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:30">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="C10" t="s">
         <v>32</v>
       </c>
+      <c r="G10" t="s">
+        <v>54</v>
+      </c>
+      <c r="J10" t="s">
+        <v>55</v>
+      </c>
+      <c r="N10" t="s">
+        <v>56</v>
+      </c>
+      <c r="S10" t="s">
+        <v>57</v>
+      </c>
+      <c r="W10" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="11" spans="1:30">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B11" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" t="s">
-        <v>54</v>
-      </c>
-      <c r="J11" t="s">
-        <v>55</v>
-      </c>
-      <c r="N11" t="s">
-        <v>56</v>
-      </c>
-      <c r="S11" t="s">
-        <v>57</v>
-      </c>
-      <c r="W11" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:30">
       <c r="A12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:30">
       <c r="A13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B13" t="s">
         <v>39</v>
@@ -1533,60 +2501,60 @@
     </row>
     <row r="14" spans="1:30">
       <c r="A14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>62</v>
+      </c>
+      <c r="C14" t="s">
+        <v>63</v>
+      </c>
+      <c r="G14" t="s">
+        <v>64</v>
+      </c>
+      <c r="N14" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:30">
       <c r="A15" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B15" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="C15" t="s">
-        <v>63</v>
-      </c>
-      <c r="G15" t="s">
-        <v>64</v>
-      </c>
-      <c r="N15" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:30">
       <c r="A16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
+        <v>32</v>
+      </c>
+      <c r="G16" t="s">
+        <v>33</v>
+      </c>
+      <c r="J16" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:27">
       <c r="A17" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" t="s">
-        <v>32</v>
-      </c>
-      <c r="G17" t="s">
-        <v>33</v>
-      </c>
-      <c r="J17" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:27">
       <c r="A18" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B18" t="s">
         <v>39</v>
@@ -1594,85 +2562,85 @@
     </row>
     <row r="19" spans="1:27">
       <c r="A19" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>46</v>
+      </c>
+      <c r="C19" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:27">
       <c r="A20" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B20" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="C20" t="s">
-        <v>46</v>
+        <v>32</v>
+      </c>
+      <c r="G20" t="s">
+        <v>54</v>
+      </c>
+      <c r="J20" t="s">
+        <v>55</v>
+      </c>
+      <c r="N20" t="s">
+        <v>56</v>
+      </c>
+      <c r="S20" t="s">
+        <v>57</v>
+      </c>
+      <c r="W20" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:27">
       <c r="A21" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B21" t="s">
-        <v>71</v>
-      </c>
-      <c r="C21" t="s">
-        <v>32</v>
-      </c>
-      <c r="G21" t="s">
-        <v>54</v>
-      </c>
-      <c r="J21" t="s">
-        <v>55</v>
-      </c>
-      <c r="N21" t="s">
-        <v>56</v>
-      </c>
-      <c r="S21" t="s">
-        <v>57</v>
-      </c>
-      <c r="W21" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA21" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:27">
       <c r="A22" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>46</v>
+      </c>
+      <c r="C22" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:27">
       <c r="A23" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B23" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="C23" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:27">
       <c r="A24" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B24" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:27">
       <c r="A25" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="B25" t="s">
         <v>39</v>
@@ -1680,45 +2648,15 @@
     </row>
     <row r="26" spans="1:27">
       <c r="A26" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="B26" t="s">
-        <v>77</v>
-      </c>
-      <c r="C26" t="s">
-        <v>46</v>
-      </c>
-      <c r="D26" t="s">
-        <v>47</v>
-      </c>
-      <c r="G26" t="s">
-        <v>48</v>
-      </c>
-      <c r="H26" t="s">
-        <v>49</v>
-      </c>
-      <c r="J26" t="s">
-        <v>45</v>
-      </c>
-      <c r="M26" t="s">
-        <v>78</v>
-      </c>
-      <c r="P26" t="s">
-        <v>79</v>
-      </c>
-      <c r="S26" t="s">
-        <v>80</v>
-      </c>
-      <c r="W26" t="s">
-        <v>81</v>
-      </c>
-      <c r="AA26" t="s">
-        <v>77</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:27">
       <c r="A27" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B27" t="s">
         <v>39</v>
@@ -1726,45 +2664,15 @@
     </row>
     <row r="28" spans="1:27">
       <c r="A28" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B28" t="s">
-        <v>77</v>
-      </c>
-      <c r="C28" t="s">
-        <v>46</v>
-      </c>
-      <c r="D28" t="s">
-        <v>47</v>
-      </c>
-      <c r="G28" t="s">
-        <v>48</v>
-      </c>
-      <c r="H28" t="s">
-        <v>49</v>
-      </c>
-      <c r="J28" t="s">
-        <v>45</v>
-      </c>
-      <c r="M28" t="s">
-        <v>78</v>
-      </c>
-      <c r="P28" t="s">
-        <v>79</v>
-      </c>
-      <c r="S28" t="s">
-        <v>80</v>
-      </c>
-      <c r="W28" t="s">
-        <v>81</v>
-      </c>
-      <c r="AA28" t="s">
-        <v>77</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:27">
       <c r="A29" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="B29" t="s">
         <v>39</v>
@@ -1772,33 +2680,15 @@
     </row>
     <row r="30" spans="1:27">
       <c r="A30" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="B30" t="s">
-        <v>78</v>
-      </c>
-      <c r="C30" t="s">
-        <v>46</v>
-      </c>
-      <c r="D30" t="s">
-        <v>47</v>
-      </c>
-      <c r="G30" t="s">
-        <v>48</v>
-      </c>
-      <c r="H30" t="s">
-        <v>49</v>
-      </c>
-      <c r="J30" t="s">
-        <v>45</v>
-      </c>
-      <c r="M30" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:27">
       <c r="A31" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="B31" t="s">
         <v>39</v>
@@ -1806,206 +2696,161 @@
     </row>
     <row r="32" spans="1:27">
       <c r="A32" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="B32" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="33" spans="1:27">
+        <v>53</v>
+      </c>
+      <c r="C32" t="s">
+        <v>32</v>
+      </c>
+      <c r="G32" t="s">
+        <v>54</v>
+      </c>
+      <c r="J32" t="s">
+        <v>55</v>
+      </c>
+      <c r="N32" t="s">
+        <v>56</v>
+      </c>
+      <c r="S32" t="s">
+        <v>57</v>
+      </c>
+      <c r="W32" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23">
       <c r="A33" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="B33" t="s">
-        <v>89</v>
-      </c>
-      <c r="C33" t="s">
-        <v>46</v>
-      </c>
-      <c r="D33" t="s">
-        <v>47</v>
-      </c>
-      <c r="G33" t="s">
-        <v>48</v>
-      </c>
-      <c r="H33" t="s">
-        <v>49</v>
-      </c>
-      <c r="I33" t="s">
-        <v>90</v>
-      </c>
-      <c r="J33" t="s">
-        <v>91</v>
-      </c>
-      <c r="K33" t="s">
-        <v>92</v>
-      </c>
-      <c r="L33" t="s">
-        <v>93</v>
-      </c>
-      <c r="M33" t="s">
-        <v>94</v>
-      </c>
-      <c r="N33" t="s">
-        <v>95</v>
-      </c>
-      <c r="O33" t="s">
-        <v>96</v>
-      </c>
-      <c r="S33" t="s">
-        <v>97</v>
-      </c>
-      <c r="W33" t="s">
-        <v>98</v>
-      </c>
-      <c r="AA33" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="34" spans="1:27">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
       <c r="A34" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="B34" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="35" spans="1:27">
+        <v>114</v>
+      </c>
+      <c r="C34" t="s">
+        <v>32</v>
+      </c>
+      <c r="G34" t="s">
+        <v>33</v>
+      </c>
+      <c r="J34" t="s">
+        <v>34</v>
+      </c>
+      <c r="N34" t="s">
+        <v>115</v>
+      </c>
+      <c r="S34" t="s">
+        <v>116</v>
+      </c>
+      <c r="W34" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23">
       <c r="A35" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="B35" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="36" spans="1:27">
+        <v>118</v>
+      </c>
+      <c r="C35" t="s">
+        <v>32</v>
+      </c>
+      <c r="G35" t="s">
+        <v>119</v>
+      </c>
+      <c r="J35" t="s">
+        <v>119</v>
+      </c>
+      <c r="N35" t="s">
+        <v>120</v>
+      </c>
+      <c r="S35" t="s">
+        <v>121</v>
+      </c>
+      <c r="W35" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
       <c r="A36" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="B36" t="s">
-        <v>77</v>
+        <v>123</v>
       </c>
       <c r="C36" t="s">
-        <v>46</v>
-      </c>
-      <c r="D36" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="G36" t="s">
-        <v>48</v>
-      </c>
-      <c r="H36" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="J36" t="s">
-        <v>45</v>
-      </c>
-      <c r="M36" t="s">
-        <v>78</v>
-      </c>
-      <c r="P36" t="s">
-        <v>79</v>
+        <v>34</v>
+      </c>
+      <c r="N36" t="s">
+        <v>124</v>
       </c>
       <c r="S36" t="s">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="W36" t="s">
-        <v>81</v>
-      </c>
-      <c r="AA36" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="37" spans="1:27">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
       <c r="A37" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="B37" t="s">
-        <v>103</v>
+        <v>53</v>
       </c>
       <c r="C37" t="s">
-        <v>46</v>
-      </c>
-      <c r="D37" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="G37" t="s">
-        <v>48</v>
-      </c>
-      <c r="H37" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J37" t="s">
-        <v>45</v>
-      </c>
-      <c r="M37" t="s">
-        <v>104</v>
+        <v>55</v>
       </c>
       <c r="N37" t="s">
-        <v>105</v>
-      </c>
-      <c r="O37" t="s">
-        <v>106</v>
-      </c>
-      <c r="P37" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>108</v>
-      </c>
-      <c r="R37" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="38" spans="1:27">
+        <v>56</v>
+      </c>
+      <c r="S37" t="s">
+        <v>57</v>
+      </c>
+      <c r="W37" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23">
       <c r="A38" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="B38" t="s">
-        <v>77</v>
-      </c>
-      <c r="C38" t="s">
-        <v>46</v>
-      </c>
-      <c r="D38" t="s">
-        <v>47</v>
-      </c>
-      <c r="G38" t="s">
-        <v>48</v>
-      </c>
-      <c r="H38" t="s">
-        <v>49</v>
-      </c>
-      <c r="J38" t="s">
-        <v>45</v>
-      </c>
-      <c r="M38" t="s">
-        <v>78</v>
-      </c>
-      <c r="P38" t="s">
-        <v>79</v>
-      </c>
-      <c r="S38" t="s">
-        <v>80</v>
-      </c>
-      <c r="W38" t="s">
-        <v>81</v>
-      </c>
-      <c r="AA38" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="39" spans="1:27">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23">
       <c r="A39" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="B39" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:27">
+    <row r="40" spans="1:23">
       <c r="A40" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="B40" t="s">
         <v>53</v>
@@ -2029,220 +2874,52 @@
         <v>53</v>
       </c>
     </row>
-    <row r="41" spans="1:27">
+    <row r="41" spans="1:23">
       <c r="A41" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="B41" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:27">
+    <row r="42" spans="1:23">
       <c r="A42" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="B42" t="s">
-        <v>114</v>
+        <v>46</v>
       </c>
       <c r="C42" t="s">
-        <v>32</v>
-      </c>
-      <c r="G42" t="s">
-        <v>33</v>
-      </c>
-      <c r="J42" t="s">
-        <v>34</v>
-      </c>
-      <c r="N42" t="s">
-        <v>115</v>
-      </c>
-      <c r="S42" t="s">
-        <v>116</v>
-      </c>
-      <c r="W42" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="43" spans="1:27">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23">
       <c r="A43" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="B43" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="C43" t="s">
         <v>32</v>
       </c>
       <c r="G43" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="J43" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="N43" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="S43" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="W43" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="44" spans="1:27">
-      <c r="A44" t="s">
-        <v>122</v>
-      </c>
-      <c r="B44" t="s">
-        <v>123</v>
-      </c>
-      <c r="C44" t="s">
-        <v>32</v>
-      </c>
-      <c r="G44" t="s">
-        <v>33</v>
-      </c>
-      <c r="J44" t="s">
-        <v>34</v>
-      </c>
-      <c r="N44" t="s">
-        <v>124</v>
-      </c>
-      <c r="S44" t="s">
-        <v>125</v>
-      </c>
-      <c r="W44" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="45" spans="1:27">
-      <c r="A45" t="s">
-        <v>126</v>
-      </c>
-      <c r="B45" t="s">
-        <v>47</v>
-      </c>
-      <c r="C45" t="s">
-        <v>46</v>
-      </c>
-      <c r="D45" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="46" spans="1:27">
-      <c r="A46" t="s">
-        <v>127</v>
-      </c>
-      <c r="B46" t="s">
-        <v>53</v>
-      </c>
-      <c r="C46" t="s">
-        <v>32</v>
-      </c>
-      <c r="G46" t="s">
-        <v>54</v>
-      </c>
-      <c r="J46" t="s">
-        <v>55</v>
-      </c>
-      <c r="N46" t="s">
-        <v>56</v>
-      </c>
-      <c r="S46" t="s">
-        <v>57</v>
-      </c>
-      <c r="W46" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="47" spans="1:27">
-      <c r="A47" t="s">
-        <v>128</v>
-      </c>
-      <c r="B47" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="48" spans="1:27">
-      <c r="A48" t="s">
-        <v>129</v>
-      </c>
-      <c r="B48" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="49" spans="1:23">
-      <c r="A49" t="s">
-        <v>130</v>
-      </c>
-      <c r="B49" t="s">
-        <v>53</v>
-      </c>
-      <c r="C49" t="s">
-        <v>32</v>
-      </c>
-      <c r="G49" t="s">
-        <v>54</v>
-      </c>
-      <c r="J49" t="s">
-        <v>55</v>
-      </c>
-      <c r="N49" t="s">
-        <v>56</v>
-      </c>
-      <c r="S49" t="s">
-        <v>57</v>
-      </c>
-      <c r="W49" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="50" spans="1:23">
-      <c r="A50" t="s">
-        <v>131</v>
-      </c>
-      <c r="B50" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="51" spans="1:23">
-      <c r="A51" t="s">
-        <v>132</v>
-      </c>
-      <c r="B51" t="s">
-        <v>46</v>
-      </c>
-      <c r="C51" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="52" spans="1:23">
-      <c r="A52" t="s">
-        <v>133</v>
-      </c>
-      <c r="B52" t="s">
         <v>134</v>
       </c>
-      <c r="C52" t="s">
-        <v>32</v>
-      </c>
-      <c r="G52" t="s">
-        <v>135</v>
-      </c>
-      <c r="J52" t="s">
-        <v>135</v>
-      </c>
-      <c r="N52" t="s">
-        <v>136</v>
-      </c>
-      <c r="S52" t="s">
-        <v>137</v>
-      </c>
-      <c r="W52" t="s">
-        <v>134</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/analyses/unipept-table-results/ja14_propeps.xlsx
+++ b/analyses/unipept-table-results/ja14_propeps.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meganduffy/Documents/git-repos/2017-etnp/analyses/unipept-table-results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{BA17DF99-1DBC-1648-9056-C4959A5DEAF8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20F9C72D-A8EE-F146-ACEE-76F65487070A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1420" yWindow="1820" windowWidth="23000" windowHeight="11860" activeTab="1"/>
+    <workbookView xWindow="1420" yWindow="1820" windowWidth="23000" windowHeight="11860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ja14_propeps" sheetId="1" r:id="rId1"/>
-    <sheet name="prok only" sheetId="2" r:id="rId2"/>
+    <sheet name="DB peps" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -440,7 +440,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18">
     <font>
       <sz val="12"/>
@@ -1274,11 +1274,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:AD52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2254,11 +2254,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AD43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
